--- a/src/data/notas vr1.xlsx
+++ b/src/data/notas vr1.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eespinoza\Mi unidad\TRABAJOS\2024\Dr Carlos Carcausto SPAAR\Actividades\2025\01 Curso\SISTEMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Plataforma  de Consulta de Notas\Plataforma-de-Consulta-de-Notas-de-Alumnos\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE40AAA9-8290-4511-A403-6E3FA8B79E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D68CAC-3B4C-4001-BCA5-41166D2433BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{572C54B9-7401-4460-9806-8CD8F9F9A5C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{572C54B9-7401-4460-9806-8CD8F9F9A5C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1764,7 +1755,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1778,9 +1790,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1818,7 +1830,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1924,7 +1936,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2066,7 +2078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2074,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A6EB45-3235-4DBD-8D50-92C97351BD21}">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K151" sqref="K151"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,9 +2098,10 @@
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="8" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>198</v>
       </c>
@@ -2114,7 +2127,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2133,8 +2146,12 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>COUNTIF(C2:C179,C2:C179)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2154,7 +2171,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2174,7 +2191,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +2211,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2214,7 +2231,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -2234,7 +2251,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -2254,7 +2271,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2274,7 +2291,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2294,7 +2311,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2314,7 +2331,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -2334,7 +2351,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -2354,7 +2371,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2374,7 +2391,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -2394,7 +2411,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -5499,6 +5516,9 @@
       <c r="H179" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C179">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
